--- a/geodaten_template.xlsx
+++ b/geodaten_template.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\Studium_Universitaet_Wuerzburg\Master_Media_Entertainment\SS25\SS25Entertainment Interactive &amp; Film (Kombi)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA9BD9-2BF4-4711-862C-321AEE465902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B25DB-5AD3-4AE9-ACBF-87D10117C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1736A73E-3B6C-4F23-8FDD-DA74F399E2F4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -33,34 +28,73 @@
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Breite (Lat)</t>
-  </si>
-  <si>
-    <t>Länge (Lon)</t>
+    <t>Beschreibung</t>
   </si>
   <si>
     <t>Video-Link</t>
   </si>
   <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
     <t>Foto-Link</t>
   </si>
   <si>
+    <t>Öffnungzeiten</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Barrierefrei</t>
+  </si>
+  <si>
     <t>Tags</t>
   </si>
   <si>
-    <t>Öffnungzeiten</t>
-  </si>
-  <si>
-    <t>Kosten</t>
-  </si>
-  <si>
-    <t>Barrierefrei</t>
-  </si>
-  <si>
-    <t>Name des Ortes – z. B. „Ringpark“</t>
+    <t>Adresse / Ort</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Mensa am Studentenhaus</t>
+  </si>
+  <si>
+    <t>Hennes Kiosk &amp; Café</t>
+  </si>
+  <si>
+    <t>Unicafé</t>
+  </si>
+  <si>
+    <t>Stehtisch</t>
+  </si>
+  <si>
+    <t>Residenz Würzburg</t>
+  </si>
+  <si>
+    <t>Locanda Würzburg</t>
+  </si>
+  <si>
+    <t>Festung Marienberg</t>
+  </si>
+  <si>
+    <t>Kiliani</t>
+  </si>
+  <si>
+    <t>Wohnzimmer Bar</t>
+  </si>
+  <si>
+    <t>Tscharlies Musikkneipe</t>
+  </si>
+  <si>
+    <t>Moritz Bar</t>
+  </si>
+  <si>
+    <t>Mensa Am Hubland</t>
   </si>
   <si>
     <t>z. B. „Wellbeing“, „Abenteuer“, „Entspannen“</t>
@@ -85,6 +119,156 @@
   </si>
   <si>
     <t>Kommagetrennt – z. B. „Natur,Spazieren,Ruhe“</t>
+  </si>
+  <si>
+    <t>Kiosk &amp; Café am Standort</t>
+  </si>
+  <si>
+    <t>Café in Würzburg</t>
+  </si>
+  <si>
+    <t>Treffpunkt Stehtisch</t>
+  </si>
+  <si>
+    <t>Historisches Schloss</t>
+  </si>
+  <si>
+    <t>Pizza &amp; Pasta Restaurant</t>
+  </si>
+  <si>
+    <t>Historische Festung</t>
+  </si>
+  <si>
+    <t>Stadtteil / Festbereich</t>
+  </si>
+  <si>
+    <t>Bar / Club</t>
+  </si>
+  <si>
+    <t>Musikkneipe / Bar</t>
+  </si>
+  <si>
+    <t>Bar / Treffpunkt</t>
+  </si>
+  <si>
+    <t>Mensa am Campus Hubland</t>
+  </si>
+  <si>
+    <t>49.7901612</t>
+  </si>
+  <si>
+    <t>9.929524</t>
+  </si>
+  <si>
+    <t>49.7912065</t>
+  </si>
+  <si>
+    <t>9.942759</t>
+  </si>
+  <si>
+    <t>9.9343331</t>
+  </si>
+  <si>
+    <t>49.7859545</t>
+  </si>
+  <si>
+    <t>49.7898861</t>
+  </si>
+  <si>
+    <t>9.927389</t>
+  </si>
+  <si>
+    <t>49.7927765</t>
+  </si>
+  <si>
+    <t>9.9390337</t>
+  </si>
+  <si>
+    <t>49.7962578</t>
+  </si>
+  <si>
+    <t>9.9261348</t>
+  </si>
+  <si>
+    <t>49.7897373</t>
+  </si>
+  <si>
+    <t>9.9200275</t>
+  </si>
+  <si>
+    <t>49.7984155</t>
+  </si>
+  <si>
+    <t>9.919236</t>
+  </si>
+  <si>
+    <t>49.7874561</t>
+  </si>
+  <si>
+    <t>9.9313418</t>
+  </si>
+  <si>
+    <t>49.7888874</t>
+  </si>
+  <si>
+    <t>9.9278871</t>
+  </si>
+  <si>
+    <t>49.7922928</t>
+  </si>
+  <si>
+    <t>9.9241843</t>
+  </si>
+  <si>
+    <t>49.7815133</t>
+  </si>
+  <si>
+    <t>9.967699</t>
+  </si>
+  <si>
+    <t>Minigolf</t>
+  </si>
+  <si>
+    <t>Tischtennis</t>
+  </si>
+  <si>
+    <t>Kurt, Laby, Air, Katze, Boot, Ego, Dorni, Zauberberg</t>
+  </si>
+  <si>
+    <t>Am Studentenhaus, 97072 Würzburg</t>
+  </si>
+  <si>
+    <t>u. Johannitergasse 2, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Neubaustraße 2, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Friedrich-Ebert-Ring 4, 97072 Würzburg</t>
+  </si>
+  <si>
+    <t>Kranenkai 1, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Residenzpl. 2, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Marienberg, 97082 Würzburg</t>
+  </si>
+  <si>
+    <t>Talaveraplatz, 97082 Würzburg</t>
+  </si>
+  <si>
+    <t>Tiepolostraße 21, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Burkarderstraße 12, 97082 Würzburg</t>
+  </si>
+  <si>
+    <t>Sanderstraße 8, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>Am Hubland 16, 97074 Würzburg</t>
   </si>
 </sst>
 </file>
@@ -116,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,27 +308,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -157,9 +363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,44 +373,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -232,31 +438,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -284,26 +473,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -312,169 +484,195 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA623D6-BAEF-44DF-9AE9-6CA79FBA9544}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.9296875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="3"/>
-    <col min="5" max="5" width="46.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.19921875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.19921875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.3984375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.6640625" style="3"/>
+    <col min="1" max="1" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,64 +685,333 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5">
-        <v>497913</v>
-      </c>
-      <c r="D2" s="5">
-        <v>99312</v>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/geodaten_template.xlsx
+++ b/geodaten_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\Hangover-WUEedition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B25DB-5AD3-4AE9-ACBF-87D10117C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F76B58-47EC-4DC4-83FD-55254453CBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Tischtennis</t>
   </si>
   <si>
-    <t>Kurt, Laby, Air, Katze, Boot, Ego, Dorni, Zauberberg</t>
-  </si>
-  <si>
     <t>Am Studentenhaus, 97072 Würzburg</t>
   </si>
   <si>
@@ -269,6 +266,168 @@
   </si>
   <si>
     <t>Am Hubland 16, 97074 Würzburg</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Zauberberg</t>
+  </si>
+  <si>
+    <t>Kultur</t>
+  </si>
+  <si>
+    <t>Unterhaltung</t>
+  </si>
+  <si>
+    <t>Ausgehen</t>
+  </si>
+  <si>
+    <t>Kurt und Komisch</t>
+  </si>
+  <si>
+    <t>Mergentheimer Str. 9, 97082 Würzburg</t>
+  </si>
+  <si>
+    <t>49.7858339</t>
+  </si>
+  <si>
+    <t>9.925396</t>
+  </si>
+  <si>
+    <t>Sanderstraße 7, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>49.7893243</t>
+  </si>
+  <si>
+    <t>9.9302986</t>
+  </si>
+  <si>
+    <t>Bar/Club mit kulturellem Programm</t>
+  </si>
+  <si>
+    <t>Kultiger Club in der Innenstadt mit mehreren Floors</t>
+  </si>
+  <si>
+    <t>Großraumdiskothek</t>
+  </si>
+  <si>
+    <t>Elektronischer Club</t>
+  </si>
+  <si>
+    <t>Club mit Fokus auf House, Hip-Hop und Charts.</t>
+  </si>
+  <si>
+    <t>Beliebter Bar- und Biergarten-Spot</t>
+  </si>
+  <si>
+    <t>Große Eventlocation mit mehreren Floors und Bars.</t>
+  </si>
+  <si>
+    <t>Beliebte Eventlocation</t>
+  </si>
+  <si>
+    <t>49.797568</t>
+  </si>
+  <si>
+    <t>9.9459341</t>
+  </si>
+  <si>
+    <t>Diskothek Labyrinth</t>
+  </si>
+  <si>
+    <t>Beethovenstraße 3, 97080 Würzburg</t>
+  </si>
+  <si>
+    <t>Club Airport Würzburg</t>
+  </si>
+  <si>
+    <t>Club Katze</t>
+  </si>
+  <si>
+    <t>Das Boot</t>
+  </si>
+  <si>
+    <t>Club Alter Ego</t>
+  </si>
+  <si>
+    <t>Waldschänke Dornheim</t>
+  </si>
+  <si>
+    <t>49.7947334</t>
+  </si>
+  <si>
+    <t>Gattingerstraße 17, 97076 Würzburg</t>
+  </si>
+  <si>
+    <t>9.9904412</t>
+  </si>
+  <si>
+    <t>Gerberstraße 14, 97070 Würzburg</t>
+  </si>
+  <si>
+    <t>49.7976695</t>
+  </si>
+  <si>
+    <t>9.9259803</t>
+  </si>
+  <si>
+    <t>Veitshöchheimer Str. 5c, 97080 Würzburg</t>
+  </si>
+  <si>
+    <t>Oskar-Laredo-Platz, 1, 97080 Würzburg</t>
+  </si>
+  <si>
+    <t>Talavera 1, 97082 Würzburg</t>
+  </si>
+  <si>
+    <t>Veitshöchheimer Str. 20, 97080 Würzburg</t>
+  </si>
+  <si>
+    <t>49.8027071</t>
+  </si>
+  <si>
+    <t>9.9215546</t>
+  </si>
+  <si>
+    <t>49.7995257</t>
+  </si>
+  <si>
+    <t>9.9192057</t>
+  </si>
+  <si>
+    <t>49.8014918</t>
+  </si>
+  <si>
+    <t>9.9218139</t>
+  </si>
+  <si>
+    <t>49.8025655</t>
+  </si>
+  <si>
+    <t>9.9200503</t>
+  </si>
+  <si>
+    <t>Virchowstraße 1, 97072 Würzburg</t>
+  </si>
+  <si>
+    <t>49.7848536</t>
+  </si>
+  <si>
+    <t>9.9329575</t>
+  </si>
+  <si>
+    <t>Tischtennisplatte Sanderrasen</t>
+  </si>
+  <si>
+    <t>Natventure Games</t>
   </si>
 </sst>
 </file>
@@ -332,13 +491,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -649,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -748,8 +907,11 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>49</v>
@@ -765,18 +927,51 @@
       <c r="A4" t="s">
         <v>69</v>
       </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>68</v>
       </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>50</v>
@@ -792,8 +987,11 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>44</v>
@@ -809,8 +1007,11 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>46</v>
@@ -826,8 +1027,11 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>52</v>
@@ -843,8 +1047,11 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>54</v>
@@ -860,8 +1067,11 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>56</v>
@@ -877,8 +1087,11 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>58</v>
@@ -894,8 +1107,11 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>60</v>
@@ -911,8 +1127,11 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>62</v>
@@ -928,8 +1147,11 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>64</v>
@@ -941,55 +1163,185 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="J17" t="s">
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I27" s="5"/>
@@ -1010,6 +1362,34 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geodaten_template.xlsx
+++ b/geodaten_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\Hangover-WUEedition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2500F3-71A0-4A25-B408-E6E87B8CA4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50C4D35-768A-4F42-8E5A-36CA7EF80207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,7 +1580,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1594,9 +1594,9 @@
     <col min="7" max="7" width="31.9296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -3375,5 +3375,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>